--- a/biology/Botanique/Lobo_(pomme)/Lobo_(pomme).xlsx
+++ b/biology/Botanique/Lobo_(pomme)/Lobo_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobo est un cultivar de pommier domestique et par extension le nom de son fruit. 
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété de pomme a été créée au Canada en 1898 par la station fédérale de recherches agricoles d'Ottawa. Elle a été commercialisée à partir de 1930.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Usage : bien que bonne à croquer, elle est recommandée pour les tartes aux pommes car elle a tendance à garder sa forme même après la cuisson.
 Cette variété donne des fruits de couleur jaune rayé de rouge, assez gros et irréguliers, ressemblant à la pomme McIntosh.
@@ -575,11 +591,13 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Descendante de McIntosh.
 Descendants :
-Lodel = Lobo × Red Spur Delicious[1].
+Lodel = Lobo × Red Spur Delicious.
 Medea = Lobo × Red Spur Delicious.</t>
         </is>
       </c>
@@ -608,11 +626,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde donc, participant à la pollinisation croisée.
-Groupe de floraison: C[2]
-S-génotype:S10S22[3]
+Groupe de floraison: C
+S-génotype:S10S22
 Sources de pollen: Reinette Ananas, Cortland, Empire, Golden Delicious, Grenadier, James Grieve, Belle fleur jaune.</t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cueillette: mi-septembre [4]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cueillette: mi-septembre </t>
         </is>
       </c>
     </row>
